--- a/docs/Структура для MLOps.xlsx
+++ b/docs/Структура для MLOps.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Рабочее\АПС\Банк осциллограмм\_обработка для MLOps 2.0\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Буфер (Алексей)\Банк осциллограмм\_обработка для MLOps 2.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CA1B879-14F5-41E7-A9BC-7233B32751AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{990B51F3-C46A-4887-8BCA-E101648F6BCC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4185" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="64">
   <si>
     <t>Реально наименование</t>
   </si>
@@ -34,9 +34,6 @@
   </si>
   <si>
     <t>Новое наименование</t>
-  </si>
-  <si>
-    <t>Описание</t>
   </si>
   <si>
     <t>Осц_1_1</t>
@@ -96,6 +93,132 @@
   </si>
   <si>
     <t>В реальной баззе осциллограмм которые не нужно записывать очень много, и как раз их хотелось бы отсеивать в первую очередь</t>
+  </si>
+  <si>
+    <t>Описание отклонения</t>
+  </si>
+  <si>
+    <t>Осц_1_10</t>
+  </si>
+  <si>
+    <t>Белый шум.</t>
+  </si>
+  <si>
+    <t>Осц_1_11</t>
+  </si>
+  <si>
+    <t>1СШ норм. сигнал, 2СШ - белый шум, для исключения ложной работы</t>
+  </si>
+  <si>
+    <t>Осц_1_12</t>
+  </si>
+  <si>
+    <t>Включение СВ</t>
+  </si>
+  <si>
+    <t>Осц_1_13</t>
+  </si>
+  <si>
+    <t>С самого начала есть ОЗЗ с пробоями на 2СШ, которое перерастает в аварийное междуфазное замыкание ввиду которого отрабатывается БАВР.</t>
+  </si>
+  <si>
+    <t>Осц_1_14</t>
+  </si>
+  <si>
+    <t>С самого начала есть устойчивое ОЗЗ на 2СШ, которое перерастает в аварийное междуфазное замыкание ввиду которого отрабатывается БАВР.</t>
+  </si>
+  <si>
+    <t>Осц_1_15</t>
+  </si>
+  <si>
+    <t>С самого начала есть устойчивое ОЗЗ на 2СШ с очень мелкими пробоями, которое перерастает в аварийное междуфазное замыкание ввиду которого отрабатывается БАВР.</t>
+  </si>
+  <si>
+    <t>Отметил короткие зоны ДПОЗЗ, данный пункт спорный</t>
+  </si>
+  <si>
+    <t>Осц_1_16</t>
+  </si>
+  <si>
+    <t>Авария на 2СШ</t>
+  </si>
+  <si>
+    <t>Осц_1_17</t>
+  </si>
+  <si>
+    <t>Срабатывание БАВР 1СШ</t>
+  </si>
+  <si>
+    <t>Скорее всего наладка, отключение питающей линии</t>
+  </si>
+  <si>
+    <t>Осц_1_18</t>
+  </si>
+  <si>
+    <t>Полуавтоматический ВНР</t>
+  </si>
+  <si>
+    <t>Осц_1_19</t>
+  </si>
+  <si>
+    <t>Срабатывание БАВР 2СШ</t>
+  </si>
+  <si>
+    <t>Осц_1_20</t>
+  </si>
+  <si>
+    <t>Осц_1_21</t>
+  </si>
+  <si>
+    <t>Включение 2ВВ</t>
+  </si>
+  <si>
+    <t>Осц_1_22</t>
+  </si>
+  <si>
+    <t>Осц_1_23</t>
+  </si>
+  <si>
+    <t>Включение СВ при отключенной 2СШ</t>
+  </si>
+  <si>
+    <t>Осц_1_24</t>
+  </si>
+  <si>
+    <t>Срабатывание ВНР в следствии которого произошло ОЗЗ. Странная осциллограмма</t>
+  </si>
+  <si>
+    <t>Осц_1_25</t>
+  </si>
+  <si>
+    <t>Осц_1_26</t>
+  </si>
+  <si>
+    <t>Ошибка на аналоговой плате (неисправность терминала)</t>
+  </si>
+  <si>
+    <t>Здесь всего 1 выборка на всю осциллограмму выделяется</t>
+  </si>
+  <si>
+    <t>Осц_1_27</t>
+  </si>
+  <si>
+    <t>Осц_1_28</t>
+  </si>
+  <si>
+    <t>Осц_1_29</t>
+  </si>
+  <si>
+    <t>С самого начала есть устойчивое ОЗЗ на 1СШ, которое перерастает в аварийное междуфазное замыкание ввиду которого отрабатывается БАВР.</t>
+  </si>
+  <si>
+    <t>Осц_1_30</t>
+  </si>
+  <si>
+    <t>Осц_1_31</t>
+  </si>
+  <si>
+    <t>ДПОЗЗ перерасло в междуфазное ввиду чего по 2СШ отработал БАВР</t>
   </si>
 </sst>
 </file>
@@ -144,7 +267,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -157,6 +280,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -438,11 +564,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:B10"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2:B119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -465,105 +591,319 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="E2" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="C10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+      <c r="C14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
+      <c r="C15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="4"/>
+      <c r="C16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="4"/>
+      <c r="C17" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="4"/>
+      <c r="C18" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
+      <c r="C19" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="4"/>
+      <c r="C20" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="4"/>
+      <c r="C21" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="4"/>
+      <c r="C22" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="4"/>
+      <c r="C23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="4"/>
+      <c r="C24" t="s">
+        <v>49</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="4"/>
+      <c r="C25" t="s">
+        <v>51</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="4"/>
+      <c r="C26" t="s">
+        <v>53</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="4"/>
+      <c r="C27" t="s">
+        <v>54</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="4"/>
+      <c r="C28" t="s">
+        <v>57</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="4"/>
+      <c r="C29" t="s">
+        <v>58</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="4"/>
+      <c r="C30" t="s">
+        <v>59</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C31" t="s">
+        <v>61</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C32" t="s">
+        <v>62</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A2:A10"/>
+    <mergeCell ref="A2:A30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
